--- a/1. Time series approach/ARIMA_comparison.xlsx
+++ b/1. Time series approach/ARIMA_comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33637\Documents\12. Advanced time series\11. Exercises\4. Computer exercise 4\1. Analyse\1. Time series approach\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48346A97-17C7-487D-8C3F-BCBB0FD18055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650237B6-6263-4F1B-A9D2-92BC5F1EAEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{495BCC97-7CE9-4388-998C-3839496FFBC2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -73,6 +73,39 @@
   </si>
   <si>
     <t>AR(24)</t>
+  </si>
+  <si>
+    <t>ARMAX(4,1,0,0)</t>
+  </si>
+  <si>
+    <t>ARMAX(5,1,0,0)</t>
+  </si>
+  <si>
+    <t>ARMAX(6,1,0,0)</t>
+  </si>
+  <si>
+    <t>ARMAX(4,2,0,0)</t>
+  </si>
+  <si>
+    <t>ARMAX(5,2,0,0)</t>
+  </si>
+  <si>
+    <t>ARMAX(6,2,0,0)</t>
+  </si>
+  <si>
+    <t>ARMAX(4,3,0,0)</t>
+  </si>
+  <si>
+    <t>ARMAX(5,3,0,0)</t>
+  </si>
+  <si>
+    <t>ARMAX(6,3,0,0)</t>
+  </si>
+  <si>
+    <t>ARMAX(4,4,0,0)</t>
+  </si>
+  <si>
+    <t>ARMAX(5,4,0,0)</t>
   </si>
 </sst>
 </file>
@@ -96,12 +129,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,9 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +476,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,11 +502,11 @@
       </c>
       <c r="G1" t="str">
         <f>VLOOKUP(MIN(C2:C50),C2:D50,2,0)</f>
-        <v>AR(4)</v>
+        <v>ARMAX(4,4,0,0)</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -601,98 +641,197 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>136450</v>
+      </c>
+      <c r="C11">
+        <v>136500</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>ARMAX(4,1,0,0)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>136420</v>
+      </c>
+      <c r="C12">
+        <v>136480</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>ARMAX(5,1,0,0)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>136400</v>
+      </c>
+      <c r="C13">
+        <v>136460</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>ARMAX(6,1,0,0)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>135930</v>
+      </c>
+      <c r="C14">
+        <v>135990</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>ARMAX(4,2,0,0)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>135920</v>
+      </c>
+      <c r="C15">
+        <v>135980</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>ARMAX(5,2,0,0)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>135910</v>
+      </c>
+      <c r="C16">
+        <v>135980</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>ARMAX(6,2,0,0)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>135680</v>
+      </c>
+      <c r="C17">
+        <v>135740</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>ARMAX(4,3,0,0)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>135670</v>
+      </c>
+      <c r="C18">
+        <v>135740</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>ARMAX(5,3,0,0)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>135670</v>
+      </c>
+      <c r="C19">
+        <v>135740</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>ARMAX(6,3,0,0)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>135550</v>
+      </c>
+      <c r="C20">
+        <v>135620</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>ARMAX(4,4,0,0)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>135560</v>
+      </c>
+      <c r="C21">
+        <v>135630</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>ARMAX(5,4,0,0)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D12">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D13">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D14">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C10">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="C2:C30">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -703,8 +842,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B10">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B2:B30">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
